--- a/Reports/iProspect/iProspect17.xlsx
+++ b/Reports/iProspect/iProspect17.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75683585-214F-4216-B0E5-66654BC1BBEF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060"/>
   </bookViews>
   <sheets>
-    <sheet name="ВК (24.04 - 30.04)" sheetId="1" r:id="rId1"/>
+    <sheet name="17" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Бюджет (без НДС)</t>
   </si>
@@ -98,12 +97,30 @@
   <si>
     <t>Просмотры, 
 100%</t>
+  </si>
+  <si>
+    <t>fact_impressions</t>
+  </si>
+  <si>
+    <t>fact_clicks</t>
+  </si>
+  <si>
+    <t>fact_reach</t>
+  </si>
+  <si>
+    <t>fact_views</t>
+  </si>
+  <si>
+    <t>fact_budget</t>
+  </si>
+  <si>
+    <t>AK_VN_005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
@@ -477,7 +494,7 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -631,11 +648,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Процентный" xfId="2" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -912,38 +938,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="16.6328125" style="2" customWidth="1"/>
-    <col min="6" max="12" width="11.90625" style="2" customWidth="1"/>
-    <col min="13" max="14" width="15.1796875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.453125" style="2" customWidth="1"/>
-    <col min="16" max="18" width="15.36328125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="8.81640625" style="2"/>
-    <col min="24" max="24" width="9.1796875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="1" width="44.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="16.6640625" style="2" customWidth="1"/>
+    <col min="6" max="12" width="11.88671875" style="2" customWidth="1"/>
+    <col min="13" max="14" width="15.21875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" style="2" customWidth="1"/>
+    <col min="16" max="18" width="15.33203125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="8.77734375" style="2"/>
+    <col min="24" max="24" width="9.21875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -957,16 +983,29 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>25</v>
+      </c>
       <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1024,7 +1063,7 @@
       <c r="Z4" s="2"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>16</v>
       </c>
@@ -1087,7 +1126,7 @@
       </c>
       <c r="AB5" s="11"/>
     </row>
-    <row r="6" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="46"/>
       <c r="B6" s="35" t="s">
         <v>18</v>
@@ -1149,8 +1188,10 @@
       <c r="Z6" s="2"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" s="7" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="16"/>
+    <row r="7" spans="1:28" s="7" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="B7" s="28" t="s">
         <v>1</v>
       </c>
@@ -1219,7 +1260,7 @@
       </c>
       <c r="AB7" s="8"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -1239,7 +1280,7 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="12"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -1259,7 +1300,7 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -1273,7 +1314,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -1287,7 +1328,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -1301,7 +1342,7 @@
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -1315,7 +1356,7 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1329,7 +1370,7 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1343,7 +1384,7 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1357,7 +1398,7 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1371,7 +1412,7 @@
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -1385,7 +1426,7 @@
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
